--- a/static/document/skills.xlsx
+++ b/static/document/skills.xlsx
@@ -18,18 +18,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Distribution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Language</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -49,25 +41,37 @@
     <t>Python;HTML;CSS;JavaScript;C#</t>
   </si>
   <si>
-    <t>1;2;3;4;5</t>
-  </si>
-  <si>
     <t>Flask;jQuery;react;Tkinter;eChart;Matplotlib</t>
   </si>
   <si>
-    <t>1;2;3;4;5;6</t>
-  </si>
-  <si>
-    <t>1;2</t>
-  </si>
-  <si>
     <t>Jira;Git/GitHub;ArcGIS;Apache</t>
   </si>
   <si>
-    <t>1;2;3;4</t>
-  </si>
-  <si>
-    <t>PostgreSQL;Microsoft SQL server</t>
+    <t>Distribution(must use ; to separate)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detail(must use ; to separate)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;3;0;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostgreSQL;Mic SQL server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8;5;5;4;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6;2;1;3;4;2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +437,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -445,57 +449,57 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
